--- a/data/trans_bre/P1422-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.5851440564532733</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6413817687573243</v>
+        <v>-0.6413817687573246</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.41021702999442</v>
@@ -627,7 +627,7 @@
         <v>-0.6362622867705856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.3660588343638506</v>
+        <v>-0.3660588343638507</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.473994170415139</v>
+        <v>-1.363503890306255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.442851791681101</v>
+        <v>-1.52535363257413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.738737119796035</v>
+        <v>-1.828932807509663</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.8785341916091076</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8855089020988431</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.6851920093841676</v>
+        <v>-0.7112198228082862</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4623595246975896</v>
+        <v>0.5132411383378803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1764498369979708</v>
+        <v>0.1651214670269258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3399128511208639</v>
+        <v>0.2900243235558291</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.373710360688535</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>2.049221806854193</v>
-      </c>
+        <v>1.343875740593106</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.4063855448744573</v>
+        <v>0.2637553788359263</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +696,7 @@
         <v>0.5380278143175444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.28063102911024</v>
+        <v>-0.2806310291102402</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2581095623089927</v>
@@ -709,7 +705,7 @@
         <v>1.831092221345452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2031406513529196</v>
+        <v>-0.2031406513529197</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.139431990164009</v>
+        <v>-1.148101426469762</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00418928268181938</v>
+        <v>-0.04195477923718374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.282551645789732</v>
+        <v>-1.232771464106943</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.778021685641103</v>
+        <v>-0.7989755472893936</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3548304400382308</v>
+        <v>-0.5655864264152333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6125857751221288</v>
+        <v>-0.6091170153632059</v>
       </c>
     </row>
     <row r="9">
@@ -746,20 +742,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.51964429128377</v>
+        <v>0.5540557923568721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.445858399513998</v>
+        <v>1.443313478815577</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4326242925722865</v>
+        <v>0.4658983253996885</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9431961985248989</v>
+        <v>1.159671419722693</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.5464637806208451</v>
+        <v>0.506752213444485</v>
       </c>
     </row>
     <row r="10">
@@ -780,7 +776,7 @@
         <v>-0.4788923894203579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.5180479728237725</v>
+        <v>-0.5180479728237726</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.3926586098841597</v>
@@ -789,7 +785,7 @@
         <v>-0.7473232942070905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.4184355768975401</v>
+        <v>-0.4184355768975402</v>
       </c>
     </row>
     <row r="11">
@@ -800,20 +796,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.801588146762126</v>
+        <v>-1.698570002391735</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.344703211202255</v>
+        <v>-1.404397111881378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.455730431381054</v>
+        <v>-1.557076165668836</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.9383389511312941</v>
+        <v>-0.9355861122070969</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7887876749633286</v>
+        <v>-0.7973348935529091</v>
       </c>
     </row>
     <row r="12">
@@ -824,20 +820,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4568367545929045</v>
+        <v>0.5185325424797531</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06949219967395948</v>
+        <v>0.1200997432171626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.401526971356754</v>
+        <v>0.3532893739941106</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.83242150848343</v>
+        <v>2.415638149539843</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.7163950744537091</v>
+        <v>0.7276848706383848</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +854,7 @@
         <v>0.02520167486335673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3116256380641874</v>
+        <v>0.3116256380641875</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1022566501888501</v>
@@ -867,7 +863,7 @@
         <v>0.03154305159060617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3695413780658398</v>
+        <v>0.36954137806584</v>
       </c>
     </row>
     <row r="14">
@@ -878,22 +874,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.113405591859833</v>
+        <v>-1.047441516744655</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7326438142766478</v>
+        <v>-0.7334183095276593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4308332296076035</v>
+        <v>-0.4561503840527889</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7249166261145668</v>
+        <v>-0.7031290960638167</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6674209305489651</v>
+        <v>-0.677177434111085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3730477915125661</v>
+        <v>-0.3670196165561223</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +900,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7571216221517157</v>
+        <v>0.7311340396747928</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9849922110251258</v>
+        <v>0.9017116662156623</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9472138459491414</v>
+        <v>0.9954881742396633</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.653247813363909</v>
+        <v>1.639587132066313</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.326322208358924</v>
+        <v>2.234565569326968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.912397209969964</v>
+        <v>1.893855164332759</v>
       </c>
     </row>
     <row r="16">
@@ -960,22 +956,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.775754343064428</v>
+        <v>-0.7865680462755251</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4296981357045436</v>
+        <v>-0.4160037655181751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.690500427814622</v>
+        <v>-0.6419779760005733</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.6028635768519219</v>
+        <v>-0.5932240924583104</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5382417851677409</v>
+        <v>-0.5395327048307818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.435911035456863</v>
+        <v>-0.4321013285504455</v>
       </c>
     </row>
     <row r="18">
@@ -986,22 +982,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.165073989841926</v>
+        <v>0.126271645574015</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3823749740376493</v>
+        <v>0.3523387955633164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1705421401591196</v>
+        <v>0.2128002431743016</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2521268638528452</v>
+        <v>0.1955916968152126</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9148364502013658</v>
+        <v>0.7850147940858968</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1845945724553292</v>
+        <v>0.2271891309076229</v>
       </c>
     </row>
     <row r="19">
